--- a/testData/Homelyf_userDetails.xlsx
+++ b/testData/Homelyf_userDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\HomeLyf_Services\HomeLyf_Services_Project\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0F9081-06D9-4BB2-92B0-17040CD43EAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53CED6-4BE2-4B9F-B7C1-DE0C34245229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{F5AFA476-B188-4704-B4AF-7DC25B5EF2AB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -87,29 +87,20 @@
     <t>String</t>
   </si>
   <si>
-    <t>Urmila</t>
-  </si>
-  <si>
-    <t>yayibi8752@dacgu.com</t>
-  </si>
-  <si>
-    <t>Urmila@123</t>
-  </si>
-  <si>
-    <t>Naman kahan</t>
-  </si>
-  <si>
-    <t>merovar806@dacgu.com</t>
-  </si>
-  <si>
-    <t>Pass@123</t>
+    <t>gehoci4718@felibg.com</t>
+  </si>
+  <si>
+    <t>Priyanka@123</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,12 +115,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,15 +138,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -478,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4322062A-75EF-4C12-924A-ADAAB710502A}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -558,113 +536,60 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>7789562325</v>
+        <v>9874563210</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>987456123486</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
-        <v>789654321123</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3">
-        <v>9965238755</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>789456312451</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
+      <c r="Q2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{3A633B99-EF31-4DCE-A78F-5752812F74E6}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D4978533-8EA8-4DC4-B393-18D88DC5724C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
